--- a/Data/Characters - Blue Archive - 3284538085/Characters - Blue Archive - 3284538085.xlsx
+++ b/Data/Characters - Blue Archive - 3284538085/Characters - Blue Archive - 3284538085.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Characters - Blue Archive - 3284538085\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B9FC6-EA42-4800-B715-1C86926608C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59CE3E-FDB5-4BE3-BB4A-00FE55CB11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6079,12 +6079,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E497" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D2010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-20에 새로 추가된 노드들 (28개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F497" authorId="0" shapeId="0" xr:uid="{CAA0369D-B01A-4389-AC59-C571BAB2A339}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-20에 새로 추가된 노드들 (28개)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="1869">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -6240,9 +6266,6 @@
   </si>
   <si>
     <t>BA_DisciplinaryCommitteePresident.description</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 모두가 두려워하는 게헨나의 선도부 부장으로, 전장에서 놀라운 위력을 발휘합니다.</t>
   </si>
   <si>
     <r>
@@ -6257,6 +6280,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>{PAWN_nameDef}(은)는 모두가 두려워하는 게헨나의 선도부 부장으로, 전장에서 놀라운 위력을 발휘합니다.</t>
+  </si>
+  <si>
     <t>BackstoryDef+BA_GourmetResearchSocietyPresident.title</t>
   </si>
   <si>
@@ -6282,9 +6308,6 @@
   </si>
   <si>
     <t>{PAWN_nameDef} is the president of the Gourmet Research Society at Gehenna Academy. Upon first look at her, one might think {PAWN_pronoun} is a rich princess-like and aloof elegance, but get her involved in talks of food and all sense of distinction is lost in this zealous gourmet.</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_NinjutsuResearchClubMember.title</t>
   </si>
   <si>
     <r>
@@ -6299,6 +6322,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_NinjutsuResearchClubMember.title</t>
+  </si>
+  <si>
     <t>BA_NinjutsuResearchClubMember.title</t>
   </si>
   <si>
@@ -10752,9 +10778,6 @@
   </si>
   <si>
     <t>KivotosStudent.description</t>
-  </si>
-  <si>
-    <t>XenotypeDef+KivotosStudent.descriptionShort</t>
   </si>
   <si>
     <r>
@@ -10781,13 +10804,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>XenotypeDef+KivotosStudent.descriptionShort</t>
+  </si>
+  <si>
     <t>KivotosStudent.descriptionShort</t>
   </si>
   <si>
     <t>The "students" of Kivotos, Which possess great physical strength and excellent attack, defense, and even regeneration abilities.</t>
-  </si>
-  <si>
-    <t>Keyed+CallRecruit</t>
   </si>
   <si>
     <r>
@@ -10802,6 +10825,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+CallRecruit</t>
+  </si>
+  <si>
     <t>Keyed</t>
   </si>
   <si>
@@ -10809,9 +10835,6 @@
   </si>
   <si>
     <t>Recruit a Blue Archive Character ({0})</t>
-  </si>
-  <si>
-    <t>Keyed+NoEnoughSilver</t>
   </si>
   <si>
     <r>
@@ -10826,13 +10849,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+NoEnoughSilver</t>
+  </si>
+  <si>
     <t>NoEnoughSilver</t>
   </si>
   <si>
     <t>Not enough silver, Need {0}</t>
-  </si>
-  <si>
-    <t>Keyed+PawnArrived</t>
   </si>
   <si>
     <r>
@@ -10847,6 +10870,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+PawnArrived</t>
+  </si>
+  <si>
     <t>PawnArrived</t>
   </si>
   <si>
@@ -10913,9 +10939,6 @@
     <t>Allow specified character recruit</t>
   </si>
   <si>
-    <t>ThingDef+Sensei_headgear.label</t>
-  </si>
-  <si>
     <t>Keyed+EnterCharacterCode</t>
   </si>
   <si>
@@ -10989,9 +11012,6 @@
   </si>
   <si>
     <t>Recruit a Blue Archive Character x10 ({0})</t>
-  </si>
-  <si>
-    <t>Keyed+BA_GachaTitle</t>
   </si>
   <si>
     <r>
@@ -11006,6 +11026,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_GachaTitle</t>
+  </si>
+  <si>
     <t>BA_GachaTitle</t>
   </si>
   <si>
@@ -11121,9 +11144,6 @@
   </si>
   <si>
     <t>Ability_Shiroko_label</t>
-  </si>
-  <si>
-    <t>AbilityDef+Ability_Shiroko.description</t>
   </si>
   <si>
     <r>
@@ -11138,13 +11158,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>AbilityDef+Ability_Shiroko.description</t>
+  </si>
+  <si>
     <t>Ability_Shiroko.description</t>
   </si>
   <si>
     <t>Ability_Shiroko_description (In develop)</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.title</t>
   </si>
   <si>
     <r>
@@ -11159,13 +11179,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.title</t>
+  </si>
+  <si>
     <t>BA_BlackTortoisePromenadeChairman.title</t>
   </si>
   <si>
     <t>Black Tortoise Promenade Chairman</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.titleShort</t>
   </si>
   <si>
     <r>
@@ -11180,13 +11200,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.titleShort</t>
+  </si>
+  <si>
     <t>BA_BlackTortoisePromenadeChairman.titleShort</t>
   </si>
   <si>
     <t>Chairman</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.description</t>
   </si>
   <si>
     <r>
@@ -11201,13 +11221,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.description</t>
+  </si>
+  <si>
     <t>BA_BlackTortoisePromenadeChairman.description</t>
   </si>
   <si>
     <t>{PAWN_nameDef} is a member of Shanhaijing Senior High School and the chairman of the gourmet Black Tortoise Promenade.\nUnder {PAWN_possessive} extraordinary management, Black Tortoise Promenade grew from a mediocre shopping street into one of the best gourmet districts in Kivotos. Although {PAWN_pronoun} is at odds with the Shanhaijing student council, who are wary of {PAWN_possessive} growing influence, {PAWN_nameDef} herself seems to have no interest in anything other than developing the enterprise.</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Sensei.firstName</t>
   </si>
   <si>
     <r>
@@ -11222,13 +11242,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Sensei.firstName</t>
+  </si>
+  <si>
     <t>Sensei.firstName</t>
   </si>
   <si>
     <t>Sensei</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Sensei.nickName</t>
   </si>
   <si>
     <r>
@@ -11243,28 +11263,28 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Sensei.nickName</t>
+  </si>
+  <si>
     <t>Sensei.nickName</t>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Sensei.lastName</t>
+  </si>
+  <si>
     <t>Sensei.lastName</t>
   </si>
   <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Sensei.lastName</t>
+    <t>HediffDef+EmptyHediff.label</t>
   </si>
   <si>
     <t>HediffDef</t>
   </si>
   <si>
-    <t>HediffDef+EmptyHediff.label</t>
-  </si>
-  <si>
     <t>EmptyHediff.label</t>
   </si>
   <si>
     <t>Empty Hediff</t>
-  </si>
-  <si>
-    <t>HediffDef+EmptyHediff.description</t>
   </si>
   <si>
     <r>
@@ -11279,13 +11299,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>HediffDef+EmptyHediff.description</t>
+  </si>
+  <si>
     <t>EmptyHediff.description</t>
   </si>
   <si>
     <t>Remove all other hediffs when generate pawn</t>
-  </si>
-  <si>
-    <t>ScenarioDef+BA_Scenario.label</t>
   </si>
   <si>
     <r>
@@ -11300,6 +11320,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ScenarioDef+BA_Scenario.label</t>
+  </si>
+  <si>
     <t>ScenarioDef</t>
   </si>
   <si>
@@ -11307,9 +11330,6 @@
   </si>
   <si>
     <t>Blue Archive Adventure</t>
-  </si>
-  <si>
-    <t>ScenarioDef+BA_Scenario.description</t>
   </si>
   <si>
     <r>
@@ -11324,13 +11344,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ScenarioDef+BA_Scenario.description</t>
+  </si>
+  <si>
     <t>BA_Scenario.description</t>
   </si>
   <si>
     <t>The spaceship crash-lands on a planet filled with mystery and danger. Resources are scarce, and the environment is harsh. As the Sensei, you must not only protect the students' safety but also guide them to find ways to survive in this unknown world. You need to use the limited resources to build shelters and explore the surroundings. The calm days won't last long, as various attacks will follow, hostile natives, ruthless mechanites, and ancient mysterious entities. \n\nEach student is unique, so take good care of them and call for support through the Comms console when necessary. \n\nNote: This is a relatively simple scenario.\n\n(It is recommended to use the Character Editor to create your own Sensei character)</t>
-  </si>
-  <si>
-    <t>ScenarioDef+BA_Scenario.scenario.summary</t>
   </si>
   <si>
     <r>
@@ -11345,13 +11365,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ScenarioDef+BA_Scenario.scenario.summary</t>
+  </si>
+  <si>
     <t>BA_Scenario.scenario.summary</t>
   </si>
   <si>
     <t>Sensei and three accompanying students from Blue Archive</t>
-  </si>
-  <si>
-    <t>ScenarioDef+BA_Scenario.scenario.name</t>
   </si>
   <si>
     <r>
@@ -11366,19 +11386,22 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ScenarioDef+BA_Scenario.scenario.name</t>
+  </si>
+  <si>
     <t>BA_Scenario.scenario.name</t>
   </si>
   <si>
+    <t>ScenarioDef+BA_Scenario.scenario.description</t>
+  </si>
+  <si>
     <t>BA_Scenario.scenario.description</t>
   </si>
   <si>
-    <t>ScenarioDef+BA_Scenario.scenario.description</t>
+    <t>ScenarioDef+BA_Scenario.scenario.parts.0.text</t>
   </si>
   <si>
     <t>BA_Scenario.scenario.parts.0.text</t>
-  </si>
-  <si>
-    <t>ScenarioDef+BA_Scenario.scenario.parts.0.text</t>
   </si>
   <si>
     <t>The sudden accident shattered the peaceful flight, and you crash-landed on a remote planet. Everything here looks so unfamiliar. The students around you gaze at you with eyes full of fear and unease. As their Sensei, you are deeply aware of the responsibility you bear. \n\nTaking a deep breath, you decide to pull yourself together and lead the students to survive.</t>
@@ -12110,9 +12133,6 @@
     <t>Gun_ShirokoDrone_Lable</t>
   </si>
   <si>
-    <t>ThingDef+Gun_ShirokoDrone.description</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12125,13 +12145,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThingDef+Gun_ShirokoDrone.description</t>
+  </si>
+  <si>
     <t>Gun_ShirokoDrone.description</t>
   </si>
   <si>
     <t>Gun_ShirokoDrone_Description</t>
-  </si>
-  <si>
-    <t>ThingDef+Gun_ShirokoDrone.verbs.Verb_Shoot.label</t>
   </si>
   <si>
     <r>
@@ -12146,10 +12166,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThingDef+Gun_ShirokoDrone.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
     <t>Gun_ShirokoDrone.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Arisu.firstName</t>
   </si>
   <si>
     <r>
@@ -12164,13 +12184,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Arisu.firstName</t>
+  </si>
+  <si>
     <t>Arisu.firstName</t>
   </si>
   <si>
     <t>Arisu</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Arisu.nickName</t>
   </si>
   <si>
     <r>
@@ -12185,19 +12205,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Arisu.nickName</t>
+  </si>
+  <si>
     <t>Arisu.nickName</t>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Arisu.lastName</t>
+  </si>
+  <si>
     <t>Arisu.lastName</t>
   </si>
   <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Arisu.lastName</t>
-  </si>
-  <si>
     <t>Tendou</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Rumi.firstName</t>
   </si>
   <si>
     <r>
@@ -12212,13 +12232,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Rumi.firstName</t>
+  </si>
+  <si>
     <t>Rumi.firstName</t>
   </si>
   <si>
     <t>Rumi</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Rumi.nickName</t>
   </si>
   <si>
     <r>
@@ -12233,19 +12253,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Rumi.nickName</t>
+  </si>
+  <si>
     <t>Rumi.nickName</t>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Rumi.lastName</t>
+  </si>
+  <si>
     <t>Rumi.lastName</t>
   </si>
   <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Rumi.lastName</t>
-  </si>
-  <si>
     <t>Akeshiro</t>
-  </si>
-  <si>
-    <t>Sensei_headgear.label</t>
   </si>
   <si>
     <r>
@@ -12260,24 +12280,54 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThingDef+Sensei_headgear.label</t>
+  </si>
+  <si>
+    <t>Sensei_headgear.label</t>
+  </si>
+  <si>
     <t>Sensei headgear</t>
   </si>
   <si>
     <t>ThingDef+Sensei_headgear.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>(블루 아카이브) 선생 머리장식</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Sensei_headgear.description</t>
   </si>
   <si>
+    <t>BA_allowSpecifieSpawn</t>
+  </si>
+  <si>
     <t>Keyed+BA_allowSpecifieSpawn</t>
   </si>
   <si>
-    <t>BA_allowSpecifieSpawn</t>
-  </si>
-  <si>
     <t>Keyed+BA_allowSpecifieSpawn_description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지정 캐릭터 모집 허용</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_allowSpecifieSpawn_description</t>
   </si>
   <si>
@@ -12287,6 +12337,18 @@
     <t>Keyed+BA_senseiTexturePath</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>은 10,000개를 소모해 지정한 캐릭터를 모집합니다. 캐릭터의 영어 이름을 입력해야 합니다. 자세한 네용은 영어 위키를 참고하세요.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiTexturePath</t>
   </si>
   <si>
@@ -12296,29 +12358,381 @@
     <t>Keyed+BA_senseiTexturePath_description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선생 초상화 파일 경로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiTexturePath_description</t>
   </si>
   <si>
     <t>Must use absolute path</t>
   </si>
   <si>
-    <t>(블루 아카이브) 선생 머리장식</t>
+    <t>BackstoryDef+BA_SweetsClubTroublemaker.title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전체 경로를 입력해야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_SweetsClubTroublemaker.title</t>
+  </si>
+  <si>
+    <t>After-School Sweets Club Troublemaker</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_SweetsClubTroublemaker.titleShort</t>
+  </si>
+  <si>
+    <t>BA_SweetsClubTroublemaker.titleShort</t>
+  </si>
+  <si>
+    <t>Troublemaker</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_SweetsClubTroublemaker.description</t>
+  </si>
+  <si>
+    <t>BA_SweetsClubTroublemaker.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_EngineeringClubLeader.title</t>
+  </si>
+  <si>
+    <t>BA_EngineeringClubLeader.title</t>
+  </si>
+  <si>
+    <t>Engineering Club Leader</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_EngineeringClubLeader.titleShort</t>
+  </si>
+  <si>
+    <t>BA_EngineeringClubLeader.titleShort</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_EngineeringClubLeader.description</t>
+  </si>
+  <si>
+    <t>BA_EngineeringClubLeader.description</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Romanticist.stages.0.label</t>
+  </si>
+  <si>
+    <t>ThoughtDef</t>
+  </si>
+  <si>
+    <t>BA_Romanticist.stages.0.label</t>
+  </si>
+  <si>
+    <t>romanticist</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_RomanticistPresence.stages.0.label</t>
+  </si>
+  <si>
+    <t>Romanticist presence</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_RomanticistPresence.stages.0.description</t>
+  </si>
+  <si>
+    <t>BA_RomanticistPresence.stages.0.description</t>
+  </si>
+  <si>
+    <t>I felt the beauty and poetry of life in this colony, as if everything became more beautiful.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Sensei.stages.0.label</t>
+  </si>
+  <si>
+    <t>BA_Sensei.stages.0.label</t>
+  </si>
+  <si>
+    <t>sensei</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_SenseiPresence.stages.0.label</t>
+  </si>
+  <si>
+    <t>BA_SenseiPresence.stages.0.label</t>
+  </si>
+  <si>
+    <t>Sensei presence</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_SenseiPresence.stages.0.description</t>
+  </si>
+  <si>
+    <t>BA_SenseiPresence.stages.0.description</t>
+  </si>
+  <si>
+    <t>Sensei is right next to me, I'm so happy.</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Sensei.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>BA_Sensei.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Kivotos sensei</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Sensei.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>BA_Sensei.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}is the Kivotos sensei deeply loved by the students.</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Romanticist.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>BA_Romanticist.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Romanticist.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>BA_Romanticist.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}is a firm believer in romanticism and often describes every detail of life in poetic language. {PAWN_pronoun} presence brings a romantic atmosphere to those around her.</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Utaha.firstName</t>
+  </si>
+  <si>
+    <t>Utaha.firstName</t>
+  </si>
+  <si>
+    <t>Utaha</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Utaha.nickName</t>
+  </si>
+  <si>
+    <t>Utaha.nickName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Utaha.lastName</t>
+  </si>
+  <si>
+    <t>Utaha.lastName</t>
+  </si>
+  <si>
+    <t>Shiraishi</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Natsu.firstName</t>
+  </si>
+  <si>
+    <t>Natsu.firstName</t>
+  </si>
+  <si>
+    <t>Natsu</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Natsu.nickName</t>
+  </si>
+  <si>
+    <t>Natsu.nickName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Natsu.lastName</t>
+  </si>
+  <si>
+    <t>Natsu.lastName</t>
+  </si>
+  <si>
+    <t>Yutori</t>
+  </si>
+  <si>
+    <t>Keyed+BA_senseiPortraitOffsetX</t>
+  </si>
+  <si>
+    <t>BA_senseiPortraitOffsetX</t>
+  </si>
+  <si>
+    <t>Offset X</t>
+  </si>
+  <si>
+    <t>Keyed+BA_senseiPortraitOffsetX_description</t>
+  </si>
+  <si>
+    <t>BA_senseiPortraitOffsetX_description</t>
+  </si>
+  <si>
+    <t>Horizontal offset</t>
+  </si>
+  <si>
+    <t>Keyed+BA_senseiPortraitOffsetY</t>
+  </si>
+  <si>
+    <t>BA_senseiPortraitOffsetY</t>
+  </si>
+  <si>
+    <t>Offset Y</t>
+  </si>
+  <si>
+    <t>Keyed+BA_senseiPortraitOffsetYBuffer_description</t>
+  </si>
+  <si>
+    <t>BA_senseiPortraitOffsetYBuffer_description</t>
+  </si>
+  <si>
+    <t>Vertical offset</t>
+  </si>
+  <si>
+    <t>Keyed+BA_senseiPortraitScale</t>
+  </si>
+  <si>
+    <t>BA_senseiPortraitScale</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Keyed+BA_senseiPortraitScaleBuffer_description</t>
+  </si>
+  <si>
+    <t>BA_senseiPortraitScaleBuffer_description</t>
+  </si>
+  <si>
+    <t>Scale of the picture</t>
+  </si>
+  <si>
+    <t>방과후 디저트부 트러블 메이커</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전체 경로를 입력해야 합니다.</t>
+    <t>트러블 메이커</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is a student of Trinity Integrated Academy, {PAWN_nameDef} is the chief troublemaker of the After School Sweets Club and a self-described romanticist.\n\n{PAWN_nameDef} has a habit of saying philosophical things out of the blue and using sweets as a metaphor. While {PAWN_possessive} erratic outbursts always leave everyone bamboozled, in reality {PAWN_pronoun} simply has the pure intention of wanting to share in the romanticism with everyone. Unfortunately {PAWN_possessive} constantly changing definition of "romanticism" leaves others with the undeniable impression that they're just being messed around with.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>선생 초상화 파일 경로</t>
+    <t>{PAWN_nameDef}(은)는 트리니티 트리니티 방과후 디저트부 소속의 일원으로, 트러블 메이커의 필두이자 자칭 로맨티스트입니다.\n\n{PAWN_pronoun}(은)는 묘하게 철학적인 말을 하거나, 만사를 디저트에 빗대어 표현하는 버릇이 있습니다. 늘 엉뚱한 일로 주변을 곤란하게 만들지만, 이는 모두와 함께 로망을 공유하고 싶다는 순수한 마음 때문입니다. 하지만 {PAWN_pronoun}(이)가 이야기하는 로망의 정의가 항상 바뀌기 때문에, 옆에서 보면 모두가 나츠에게 휘둘리고 있다는 인상을 부정할 순 없습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>지정 캐릭터 모집 허용</t>
+    <t>엔지니어부 부장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>은 10,000개를 소모해 지정한 캐릭터를 모집합니다. 캐릭터의 영어 이름을 입력해야 합니다. 자세한 네용은 영어 위키를 참고하세요.</t>
+    <t>부장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is the club leader of the Engineering Club at Millennium Science School.\n\nWithout straying from that title, {PAWN_nameDef} continues to develop all sorts of various robots. One {PAWN_pronoun} always brings along, Rai-chan, is known for having capabilities that can rival several hundred PMC Automata.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 밀레니엄 학원 엔지니어부의 부장입니다.\n\n{PAWN_nameDef}(은)는 엔지니어부의 부장이라는 직함을 증명이라도 하듯 다양한 로봇을 발명하였으며, 특히 {PAWN_pronoun}의 애완로봇 "천둥이"는 PMC의 전투용 오토마타 수백 대에 달하는 전투 능력을 갖추었다고 평가받고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맨티스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_RomanticistPresence.stages.0.label</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맨티스트 존재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생 존재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳에서 삶의 아름다움과 현학적인 감상이 느껴져. 모든 것이 한층 아름답게 변한 것 같아.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님과 함께함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님이 곁에 계셔서 너무 기뻐.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 학생들에게 사랑받는 키보토스의 선생입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 로망을 위해서라면 무슨 일이든 합니다.  {PAWN_pronoun}의 존재는 주변 사람들에게 낭만적인 분위기를 가져다줍니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우타하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시라이시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나츠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유토리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y축</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X축</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수평 위치를 조절합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수직 위치를 조절합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림 크기를 조절합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샬레 선생</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12721,10 +13135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F496"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="F494" sqref="F494"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="F510" sqref="F510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
@@ -12951,10 +13365,10 @@
         <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -13005,12 +13419,12 @@
         <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -20178,15 +20592,15 @@
         <v>1549</v>
       </c>
       <c r="E439" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F439" s="1" t="s">
         <v>1551</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="1" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>1546</v>
@@ -20198,12 +20612,12 @@
         <v>1554</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>1557</v>
@@ -20215,12 +20629,12 @@
         <v>1559</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>1557</v>
@@ -20232,12 +20646,12 @@
         <v>1563</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>1557</v>
@@ -20336,64 +20750,64 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C449" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E449" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="E449" s="2" t="s">
+      <c r="F449" s="1" t="s">
         <v>1591</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C450" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E450" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="E450" s="2" t="s">
+      <c r="F450" s="1" t="s">
         <v>1595</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C451" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E451" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="E451" s="2" t="s">
+      <c r="F451" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>1567</v>
@@ -20404,53 +20818,53 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C453" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E453" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="E453" s="2" t="s">
+      <c r="F453" s="1" t="s">
         <v>1605</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C454" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E454" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="E454" s="2" t="s">
+      <c r="F454" s="1" t="s">
         <v>1609</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C455" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E455" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="E455" s="2" t="s">
+      <c r="F455" s="1" t="s">
         <v>1613</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -20461,166 +20875,166 @@
         <v>1557</v>
       </c>
       <c r="C456" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E456" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="E456" s="2" t="s">
+      <c r="F456" s="1" t="s">
         <v>1617</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C457" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E457" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="E457" s="2" t="s">
+      <c r="F457" s="1" t="s">
         <v>1621</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C458" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E458" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="E458" s="2" t="s">
+      <c r="F458" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C459" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E459" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="E459" s="2" t="s">
+      <c r="F459" s="1" t="s">
         <v>1629</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C460" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E460" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="E460" s="2" t="s">
+      <c r="F460" s="1" t="s">
         <v>1633</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C461" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E461" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="E461" s="2" t="s">
+      <c r="F461" s="1" t="s">
         <v>1637</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C462" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E462" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="E462" s="2" t="s">
+      <c r="F462" s="1" t="s">
         <v>1641</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C463" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E463" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="E463" s="2" t="s">
+      <c r="F463" s="1" t="s">
         <v>1645</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C464" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E464" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="E464" s="2" t="s">
+      <c r="F464" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="E466" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="E466" s="4" t="s">
+      <c r="F466" s="1" t="s">
         <v>1654</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -20628,16 +21042,16 @@
         <v>1655</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C467" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E467" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="F467" s="1" t="s">
         <v>1658</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -20648,13 +21062,13 @@
         <v>7</v>
       </c>
       <c r="C468" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E468" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="E468" s="1" t="s">
+      <c r="F468" s="1" t="s">
         <v>1662</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -20665,13 +21079,13 @@
         <v>7</v>
       </c>
       <c r="C469" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E469" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="E469" s="1" t="s">
+      <c r="F469" s="1" t="s">
         <v>1666</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -20682,13 +21096,13 @@
         <v>7</v>
       </c>
       <c r="C470" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E470" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="E470" s="1" t="s">
+      <c r="F470" s="1" t="s">
         <v>1670</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -20699,13 +21113,13 @@
         <v>665</v>
       </c>
       <c r="C471" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E471" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="E471" s="1" t="s">
+      <c r="F471" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -20716,18 +21130,18 @@
         <v>665</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E472" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F472" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>665</v>
@@ -20736,27 +21150,27 @@
         <v>1678</v>
       </c>
       <c r="E473" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F473" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="C474" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E474" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="E474" s="1" t="s">
+      <c r="F474" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -20767,13 +21181,13 @@
         <v>1680</v>
       </c>
       <c r="C475" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E475" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="E475" s="1" t="s">
+      <c r="F475" s="1" t="s">
         <v>1687</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -20781,16 +21195,16 @@
         <v>1688</v>
       </c>
       <c r="B476" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="E476" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="E476" s="1" t="s">
+      <c r="F476" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -20798,16 +21212,16 @@
         <v>1693</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C477" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E477" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="E477" s="1" t="s">
+      <c r="F477" s="1" t="s">
         <v>1696</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -20815,16 +21229,16 @@
         <v>1697</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C478" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E478" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="E478" s="1" t="s">
+      <c r="F478" s="1" t="s">
         <v>1700</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -20832,67 +21246,67 @@
         <v>1701</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E479" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F479" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="E480" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F480" s="1" t="s">
         <v>1696</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>1706</v>
       </c>
       <c r="E481" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F481" s="5" t="s">
         <v>1708</v>
-      </c>
-      <c r="F481" s="5" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="C482" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="E482" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="E482" s="1" t="s">
+      <c r="F482" s="1" t="s">
         <v>1713</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -20900,16 +21314,16 @@
         <v>1714</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C483" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E483" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="E483" s="1" t="s">
+      <c r="F483" s="1" t="s">
         <v>1717</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -20917,16 +21331,16 @@
         <v>1718</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C484" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F484" s="1" t="s">
         <v>1720</v>
-      </c>
-      <c r="E484" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -20937,13 +21351,13 @@
         <v>665</v>
       </c>
       <c r="C485" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E485" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="E485" s="1" t="s">
+      <c r="F485" s="1" t="s">
         <v>1724</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -20954,18 +21368,18 @@
         <v>665</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E486" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F486" s="1" t="s">
         <v>1724</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>665</v>
@@ -20974,10 +21388,10 @@
         <v>1728</v>
       </c>
       <c r="E487" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F487" s="1" t="s">
         <v>1730</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -20988,13 +21402,13 @@
         <v>665</v>
       </c>
       <c r="C488" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E488" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="E488" s="1" t="s">
+      <c r="F488" s="1" t="s">
         <v>1734</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -21005,18 +21419,18 @@
         <v>665</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E489" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F489" s="1" t="s">
         <v>1734</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>665</v>
@@ -21025,27 +21439,27 @@
         <v>1738</v>
       </c>
       <c r="E490" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F490" s="1" t="s">
         <v>1740</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="1" t="s">
-        <v>1588</v>
+        <v>1741</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>1743</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -21053,21 +21467,21 @@
         <v>1744</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>1743</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="1" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>1557</v>
@@ -21079,58 +21493,534 @@
         <v>1587</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="1" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="1" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1758</v>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E497" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F497" s="4" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>1867</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Characters - Blue Archive - 3284538085/Characters - Blue Archive - 3284538085.xlsx
+++ b/Data/Characters - Blue Archive - 3284538085/Characters - Blue Archive - 3284538085.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Characters - Blue Archive - 3284538085\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59CE3E-FDB5-4BE3-BB4A-00FE55CB11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D49229-37C8-42A8-AA48-B8A56BC7AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$536</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5379,6 +5382,15 @@
           </rPr>
           <t>2024-12-20에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-27 이전의 원문: '{PAWN_nameDef} loves books, especially old tomes, and spends her days in seclusion deciphering and managing them.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E414" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009D010000}">
@@ -6092,7 +6104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F497" authorId="0" shapeId="0" xr:uid="{CAA0369D-B01A-4389-AC59-C571BAB2A339}">
+    <comment ref="F497" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D3010000}">
       <text>
         <r>
           <rPr>
@@ -6102,6 +6114,19 @@
             <family val="2"/>
           </rPr>
           <t>2025-01-20에 새로 추가된 노드들 (28개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E525" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D4010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-27에 새로 추가된 노드들 (12개)</t>
         </r>
       </text>
     </comment>
@@ -6110,7 +6135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1914">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -10294,9 +10319,6 @@
     <t>contradictory</t>
   </si>
   <si>
-    <t>소식가</t>
-  </si>
-  <si>
     <t>TraitDef+BA_Contradictory.degreeDatas.0.description</t>
   </si>
   <si>
@@ -10471,7 +10493,7 @@
     <t>BA_Bookworm.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>{PAWN_nameDef} loves books, especially old tomes, and spends her days in seclusion deciphering and managing them.</t>
+    <t>BackstoryDef+BA_SanctusLeader.title</t>
   </si>
   <si>
     <t>{PAWN_nameDef}(은)는 책을 좋아하며, 특히 고서적에 대한 사랑이 깊습니다. 고서적을 해석하고 관리하는 데 하루를 보냅니다.</t>
@@ -12289,9 +12311,6 @@
     <t>Sensei headgear</t>
   </si>
   <si>
-    <t>ThingDef+Sensei_headgear.description</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12304,16 +12323,16 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThingDef+Sensei_headgear.description</t>
+  </si>
+  <si>
     <t>Sensei_headgear.description</t>
   </si>
   <si>
+    <t>Keyed+BA_allowSpecifieSpawn</t>
+  </si>
+  <si>
     <t>BA_allowSpecifieSpawn</t>
-  </si>
-  <si>
-    <t>Keyed+BA_allowSpecifieSpawn</t>
-  </si>
-  <si>
-    <t>Keyed+BA_allowSpecifieSpawn_description</t>
   </si>
   <si>
     <r>
@@ -12328,13 +12347,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_allowSpecifieSpawn_description</t>
+  </si>
+  <si>
     <t>BA_allowSpecifieSpawn_description</t>
   </si>
   <si>
     <t>Spend 10,000 silver to recruit a specific character. The character code is the character's defName, which is usually the character's English name. Refer to the English Wiki for details</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiTexturePath</t>
   </si>
   <si>
     <r>
@@ -12349,13 +12368,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiTexturePath</t>
+  </si>
+  <si>
     <t>BA_senseiTexturePath</t>
   </si>
   <si>
     <t>File path to Sensei's Portrait</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiTexturePath_description</t>
   </si>
   <si>
     <r>
@@ -12370,13 +12389,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiTexturePath_description</t>
+  </si>
+  <si>
     <t>BA_senseiTexturePath_description</t>
   </si>
   <si>
     <t>Must use absolute path</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_SweetsClubTroublemaker.title</t>
   </si>
   <si>
     <r>
@@ -12391,6 +12410,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_SweetsClubTroublemaker.title</t>
+  </si>
+  <si>
     <t>BA_SweetsClubTroublemaker.title</t>
   </si>
   <si>
@@ -12400,12 +12422,27 @@
     <t>BackstoryDef+BA_SweetsClubTroublemaker.titleShort</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>방과후 디저트부 트러블 메이커</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_SweetsClubTroublemaker.titleShort</t>
   </si>
   <si>
     <t>Troublemaker</t>
   </si>
   <si>
+    <t>트러블 메이커</t>
+  </si>
+  <si>
     <t>BackstoryDef+BA_SweetsClubTroublemaker.description</t>
   </si>
   <si>
@@ -12415,6 +12452,30 @@
     <t>BackstoryDef+BA_EngineeringClubLeader.title</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef} is a student of Trinity Integrated Academy, {PAWN_nameDef} is the chief troublemaker of the After School Sweets Club and a self-described romanticist.\n\n{PAWN_nameDef} has a habit of saying philosophical things out of the blue and using sweets as a metaphor. While {PAWN_possessive} erratic outbursts always leave everyone bamboozled, in reality {PAWN_pronoun} simply has the pure intention of wanting to share in the romanticism with everyone. Unfortunately {PAWN_possessive} constantly changing definition of "romanticism" leaves others with the undeniable impression that they're just being messed around with.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 트리니티 트리니티 방과후 디저트부 소속의 일원으로, 트러블 메이커의 필두이자 자칭 로맨티스트입니다.\n\n{PAWN_pronoun}(은)는 묘하게 철학적인 말을 하거나, 만사를 디저트에 빗대어 표현하는 버릇이 있습니다. 늘 엉뚱한 일로 주변을 곤란하게 만들지만, 이는 모두와 함께 로망을 공유하고 싶다는 순수한 마음 때문입니다. 하지만 {PAWN_pronoun}(이)가 이야기하는 로망의 정의가 항상 바뀌기 때문에, 옆에서 보면 모두가 나츠에게 휘둘리고 있다는 인상을 부정할 순 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_EngineeringClubLeader.title</t>
   </si>
   <si>
@@ -12424,12 +12485,36 @@
     <t>BackstoryDef+BA_EngineeringClubLeader.titleShort</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>엔지니어부 부장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_EngineeringClubLeader.titleShort</t>
   </si>
   <si>
     <t>Leader</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>부장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BA_EngineeringClubLeader.description</t>
   </si>
   <si>
@@ -12439,6 +12524,30 @@
     <t>ThoughtDef+BA_Romanticist.stages.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef} is the club leader of the Engineering Club at Millennium Science School.\n\nWithout straying from that title, {PAWN_nameDef} continues to develop all sorts of various robots. One {PAWN_pronoun} always brings along, Rai-chan, is known for having capabilities that can rival several hundred PMC Automata.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 밀레니엄 학원 엔지니어부의 부장입니다.\n\n{PAWN_nameDef}(은)는 엔지니어부의 부장이라는 직함을 증명이라도 하듯 다양한 로봇을 발명하였으며, 특히 {PAWN_pronoun}의 애완로봇 "천둥이"는 PMC의 전투용 오토마타 수백 대에 달하는 전투 능력을 갖추었다고 평가받고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef</t>
   </si>
   <si>
@@ -12451,12 +12560,48 @@
     <t>ThoughtDef+BA_RomanticistPresence.stages.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>로맨티스트</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Romanticist presence</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>BA_RomanticistPresence.stages.0.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_RomanticistPresence.stages.0.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>로맨티스트 존재</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_RomanticistPresence.stages.0.description</t>
   </si>
   <si>
@@ -12466,6 +12611,18 @@
     <t>ThoughtDef+BA_Sensei.stages.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이곳에서 삶의 아름다움과 현학적인 감상이 느껴져. 모든 것이 한층 아름답게 변한 것 같아.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_Sensei.stages.0.label</t>
   </si>
   <si>
@@ -12475,6 +12632,18 @@
     <t>ThoughtDef+BA_SenseiPresence.stages.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선생님과 함께함</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_SenseiPresence.stages.0.label</t>
   </si>
   <si>
@@ -12484,6 +12653,18 @@
     <t>ThoughtDef+BA_SenseiPresence.stages.0.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선생 존재</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_SenseiPresence.stages.0.description</t>
   </si>
   <si>
@@ -12493,6 +12674,18 @@
     <t>TraitDef+BA_Sensei.degreeDatas.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선생님이 곁에 계셔서 너무 기뻐.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_Sensei.degreeDatas.0.label</t>
   </si>
   <si>
@@ -12502,6 +12695,18 @@
     <t>TraitDef+BA_Sensei.degreeDatas.0.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>샬레 선생</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_Sensei.degreeDatas.0.description</t>
   </si>
   <si>
@@ -12511,21 +12716,45 @@
     <t>TraitDef+BA_Romanticist.degreeDatas.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 학생들에게 사랑받는 키보토스의 선생입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_Romanticist.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>BA_Romanticist.degreeDatas.0.description</t>
+  </si>
+  <si>
     <t>TraitDef+BA_Romanticist.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>BA_Romanticist.degreeDatas.0.description</t>
-  </si>
-  <si>
     <t>{PAWN_nameDef}is a firm believer in romanticism and often describes every detail of life in poetic language. {PAWN_pronoun} presence brings a romantic atmosphere to those around her.</t>
   </si>
   <si>
     <t>FixedPawnGenerate.FixedPawnDef+Utaha.firstName</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 로망을 위해서라면 무슨 일이든 합니다.  {PAWN_pronoun}의 존재는 주변 사람들에게 낭만적인 분위기를 가져다줍니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Utaha.firstName</t>
   </si>
   <si>
@@ -12535,21 +12764,45 @@
     <t>FixedPawnGenerate.FixedPawnDef+Utaha.nickName</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우타하</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Utaha.nickName</t>
   </si>
   <si>
+    <t>Utaha.lastName</t>
+  </si>
+  <si>
     <t>FixedPawnGenerate.FixedPawnDef+Utaha.lastName</t>
   </si>
   <si>
-    <t>Utaha.lastName</t>
-  </si>
-  <si>
     <t>Shiraishi</t>
   </si>
   <si>
     <t>FixedPawnGenerate.FixedPawnDef+Natsu.firstName</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>시라이시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Natsu.firstName</t>
   </si>
   <si>
@@ -12559,21 +12812,45 @@
     <t>FixedPawnGenerate.FixedPawnDef+Natsu.nickName</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>나츠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Natsu.nickName</t>
   </si>
   <si>
+    <t>Natsu.lastName</t>
+  </si>
+  <si>
     <t>FixedPawnGenerate.FixedPawnDef+Natsu.lastName</t>
   </si>
   <si>
-    <t>Natsu.lastName</t>
-  </si>
-  <si>
     <t>Yutori</t>
   </si>
   <si>
     <t>Keyed+BA_senseiPortraitOffsetX</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>유토리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetX</t>
   </si>
   <si>
@@ -12583,6 +12860,18 @@
     <t>Keyed+BA_senseiPortraitOffsetX_description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>X축</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetX_description</t>
   </si>
   <si>
@@ -12592,6 +12881,18 @@
     <t>Keyed+BA_senseiPortraitOffsetY</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수평 위치를 조절합니다</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetY</t>
   </si>
   <si>
@@ -12601,6 +12902,18 @@
     <t>Keyed+BA_senseiPortraitOffsetYBuffer_description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y축</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetYBuffer_description</t>
   </si>
   <si>
@@ -12610,6 +12923,18 @@
     <t>Keyed+BA_senseiPortraitScale</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수직 위치를 조절합니다</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiPortraitScale</t>
   </si>
   <si>
@@ -12619,120 +12944,184 @@
     <t>Keyed+BA_senseiPortraitScaleBuffer_description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>크기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA_senseiPortraitScaleBuffer_description</t>
   </si>
   <si>
     <t>Scale of the picture</t>
   </si>
   <si>
-    <t>방과후 디저트부 트러블 메이커</t>
+    <t>{PAWN_nameDef} loves books, often stays in the library. if there are books in the colony, {PAWN_pronoun} would be really happy.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그림 크기를 조절합니다</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_SanctusLeader.title</t>
+  </si>
+  <si>
+    <t>SanctusLeader Leader</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_SanctusLeader.titleShort</t>
+  </si>
+  <si>
+    <t>BA_SanctusLeader.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_SanctusLeader.description</t>
+  </si>
+  <si>
+    <t>BA_SanctusLeader.description</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Bookworm.stages.0.label</t>
+  </si>
+  <si>
+    <t>BA_Bookworm.stages.0.label</t>
+  </si>
+  <si>
+    <t>Some books</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Bookworm.stages.0.description</t>
+  </si>
+  <si>
+    <t>BA_Bookworm.stages.0.description</t>
+  </si>
+  <si>
+    <t>There are some books in the colony.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Bookworm.stages.1.label</t>
+  </si>
+  <si>
+    <t>BA_Bookworm.stages.1.label</t>
+  </si>
+  <si>
+    <t>A lot of books</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Bookworm.stages.1.description</t>
+  </si>
+  <si>
+    <t>BA_Bookworm.stages.1.description</t>
+  </si>
+  <si>
+    <t>There are a lot of books in the colony.</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Bookworm.stages.2.label</t>
+  </si>
+  <si>
+    <t>BA_Bookworm.stages.2.label</t>
+  </si>
+  <si>
+    <t>A library</t>
+  </si>
+  <si>
+    <t>ThoughtDef+BA_Bookworm.stages.2.description</t>
+  </si>
+  <si>
+    <t>BA_Bookworm.stages.2.description</t>
+  </si>
+  <si>
+    <t>The colony has enough books to establish a library.</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Seia.firstName</t>
+  </si>
+  <si>
+    <t>Seia.firstName</t>
+  </si>
+  <si>
+    <t>Seia</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Seia.nickName</t>
+  </si>
+  <si>
+    <t>Seia.nickName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Seia.lastName</t>
+  </si>
+  <si>
+    <t>Seia.lastName</t>
+  </si>
+  <si>
+    <t>Yurizono</t>
+  </si>
+  <si>
+    <t>상투스 분파 수장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>트러블 메이커</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is a student of Trinity Integrated Academy, {PAWN_nameDef} is the chief troublemaker of the After School Sweets Club and a self-described romanticist.\n\n{PAWN_nameDef} has a habit of saying philosophical things out of the blue and using sweets as a metaphor. While {PAWN_possessive} erratic outbursts always leave everyone bamboozled, in reality {PAWN_pronoun} simply has the pure intention of wanting to share in the romanticism with everyone. Unfortunately {PAWN_possessive} constantly changing definition of "romanticism" leaves others with the undeniable impression that they're just being messed around with.</t>
+    <t>수장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{PAWN_nameDef}(은)는 트리니티 트리니티 방과후 디저트부 소속의 일원으로, 트러블 메이커의 필두이자 자칭 로맨티스트입니다.\n\n{PAWN_pronoun}(은)는 묘하게 철학적인 말을 하거나, 만사를 디저트에 빗대어 표현하는 버릇이 있습니다. 늘 엉뚱한 일로 주변을 곤란하게 만들지만, 이는 모두와 함께 로망을 공유하고 싶다는 순수한 마음 때문입니다. 하지만 {PAWN_pronoun}(이)가 이야기하는 로망의 정의가 항상 바뀌기 때문에, 옆에서 보면 모두가 나츠에게 휘둘리고 있다는 인상을 부정할 순 없습니다.</t>
+    <t>유리조노</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>엔지니어부 부장</t>
+    <t>세이아</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>부장</t>
+    <t>A member of Trinity Integrated Academy, {PAWN_nameDef} is the leader of the "Sanctus" student union, one of the Trinity factions. She is pedantic and difficult to please. Being a bookworm, Seia is often found in the Great Library. After recovering from her injuries, she sometimes shows her more childish side.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{PAWN_nameDef} is the club leader of the Engineering Club at Millennium Science School.\n\nWithout straying from that title, {PAWN_nameDef} continues to develop all sorts of various robots. One {PAWN_pronoun} always brings along, Rai-chan, is known for having capabilities that can rival several hundred PMC Automata.</t>
+    <t>{PAWN_nameDef}(은)는 트리니티 종합학원을 구성하고 있는 티파티의 일원이자 '상투스'의 수장입니다. 주변에서는 현학적이고 종잡기 어려운 사람으로 여겨지고, 조금은 제멋대로인 귀족과 같은 면모가 있습니다. 건강이 돌아온 이후로는 전보다 조금 더 고집스럽고 장난기 있는 어린아이 같은 모습도 종종 보입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{PAWN_nameDef}(은)는 밀레니엄 학원 엔지니어부의 부장입니다.\n\n{PAWN_nameDef}(은)는 엔지니어부의 부장이라는 직함을 증명이라도 하듯 다양한 로봇을 발명하였으며, 특히 {PAWN_pronoun}의 애완로봇 "천둥이"는 PMC의 전투용 오토마타 수백 대에 달하는 전투 능력을 갖추었다고 평가받고 있습니다.</t>
+    <t>도서관</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>로맨티스트</t>
+    <t>책이 많음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BA_RomanticistPresence.stages.0.label</t>
+    <t>책이 있음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>로맨티스트 존재</t>
+    <t>정착지에 책이 있어.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>선생 존재</t>
+    <t>정착지에 책이 많아.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이곳에서 삶의 아름다움과 현학적인 감상이 느껴져. 모든 것이 한층 아름답게 변한 것 같아.</t>
+    <t>정착지에 책이 정말 많아. 도서관을 지어도 되겠어.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>선생님과 함께함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선생님이 곁에 계셔서 너무 기뻐.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 학생들에게 사랑받는 키보토스의 선생입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 로망을 위해서라면 무슨 일이든 합니다.  {PAWN_pronoun}의 존재는 주변 사람들에게 낭만적인 분위기를 가져다줍니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우타하</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시라이시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나츠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유토리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y축</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X축</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수평 위치를 조절합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수직 위치를 조절합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림 크기를 조절합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샬레 선생</t>
+    <t>소식가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -13135,10 +13524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F524"/>
+  <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="F510" sqref="F510"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
@@ -19898,681 +20287,681 @@
         <v>1387</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1388</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C399" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E399" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="E399" s="2" t="s">
+      <c r="F399" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C400" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E400" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="E400" s="2" t="s">
+      <c r="F400" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C401" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E401" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="E401" s="2" t="s">
+      <c r="F401" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C402" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E402" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="E402" s="2" t="s">
+      <c r="F402" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C403" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E403" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="E403" s="2" t="s">
+      <c r="F403" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="F403" s="1" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C404" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E404" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="E404" s="2" t="s">
+      <c r="F404" s="1" t="s">
         <v>1411</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C405" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E405" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="E405" s="2" t="s">
+      <c r="F405" s="1" t="s">
         <v>1415</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E406" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="E406" s="2" t="s">
+      <c r="F406" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C407" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E407" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="E407" s="2" t="s">
+      <c r="F407" s="1" t="s">
         <v>1423</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C408" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E408" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="E408" s="2" t="s">
+      <c r="F408" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C409" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E409" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="E409" s="2" t="s">
+      <c r="F409" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C410" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E410" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="E410" s="2" t="s">
+      <c r="F410" s="1" t="s">
         <v>1435</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C411" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E411" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="E411" s="2" t="s">
+      <c r="F411" s="1" t="s">
         <v>1439</v>
-      </c>
-      <c r="F411" s="1" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C412" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E412" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="E412" s="2" t="s">
+      <c r="F412" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E413" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F413" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E414" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="E414" s="2" t="s">
+      <c r="F414" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C415" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E415" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="E415" s="2" t="s">
+      <c r="F415" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C416" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E416" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="E416" s="2" t="s">
+      <c r="F416" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C417" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E417" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="E417" s="2" t="s">
+      <c r="F417" s="1" t="s">
         <v>1463</v>
-      </c>
-      <c r="F417" s="1" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C418" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E418" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="E418" s="2" t="s">
+      <c r="F418" s="1" t="s">
         <v>1467</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C419" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E419" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="E419" s="2" t="s">
+      <c r="F419" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="F419" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C420" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E420" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="E420" s="2" t="s">
+      <c r="F420" s="1" t="s">
         <v>1475</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C421" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E421" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="E421" s="2" t="s">
+      <c r="F421" s="1" t="s">
         <v>1479</v>
-      </c>
-      <c r="F421" s="1" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C422" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E422" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="E422" s="2" t="s">
+      <c r="F422" s="1" t="s">
         <v>1483</v>
-      </c>
-      <c r="F422" s="1" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C423" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E423" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="E423" s="2" t="s">
+      <c r="F423" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C424" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E424" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="E424" s="2" t="s">
+      <c r="F424" s="1" t="s">
         <v>1491</v>
-      </c>
-      <c r="F424" s="1" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C425" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E425" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="E425" s="2" t="s">
+      <c r="F425" s="1" t="s">
         <v>1495</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C426" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E426" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="E426" s="2" t="s">
+      <c r="F426" s="1" t="s">
         <v>1499</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C427" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E427" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="E427" s="2" t="s">
+      <c r="F427" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C428" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E428" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="E428" s="2" t="s">
+      <c r="F428" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C429" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E429" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="E429" s="2" t="s">
+      <c r="F429" s="1" t="s">
         <v>1511</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C430" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E430" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="E430" s="2" t="s">
+      <c r="F430" s="1" t="s">
         <v>1515</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C431" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E431" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="E431" s="2" t="s">
+      <c r="F431" s="1" t="s">
         <v>1519</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C432" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E432" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="E432" s="2" t="s">
+      <c r="F432" s="1" t="s">
         <v>1523</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C433" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E433" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="E433" s="2" t="s">
+      <c r="F433" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C434" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E434" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="E434" s="2" t="s">
+      <c r="F434" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C435" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E435" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="E435" s="2" t="s">
+      <c r="F435" s="1" t="s">
         <v>1535</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C436" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E436" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="E436" s="2" t="s">
+      <c r="F436" s="1" t="s">
         <v>1539</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C437" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E437" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="E437" s="2" t="s">
+      <c r="F437" s="1" t="s">
         <v>1543</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C438" s="1" t="s">
         <v>1546</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>1547</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>1343</v>
@@ -20583,883 +20972,883 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C439" s="1" t="s">
+      <c r="E439" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="E439" s="2" t="s">
+      <c r="F439" s="1" t="s">
         <v>1550</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C440" s="1" t="s">
+      <c r="E440" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="E440" s="2" t="s">
+      <c r="F440" s="1" t="s">
         <v>1554</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="E441" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="E441" s="2" t="s">
+      <c r="F441" s="1" t="s">
         <v>1559</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C442" s="1" t="s">
+      <c r="E442" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="E442" s="2" t="s">
+      <c r="F442" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C443" s="1" t="s">
+      <c r="E443" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="E443" s="2" t="s">
+      <c r="F443" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C444" s="1" t="s">
+      <c r="E444" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="E444" s="2" t="s">
+      <c r="F444" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C445" s="1" t="s">
+      <c r="E445" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="E445" s="2" t="s">
+      <c r="F445" s="1" t="s">
         <v>1575</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C446" s="1" t="s">
+      <c r="E446" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="E446" s="2" t="s">
+      <c r="F446" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C447" s="1" t="s">
+      <c r="E447" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="E447" s="2" t="s">
+      <c r="F447" s="1" t="s">
         <v>1583</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C448" s="1" t="s">
+      <c r="E448" s="3" t="s">
         <v>1586</v>
-      </c>
-      <c r="E448" s="3" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C449" s="1" t="s">
+      <c r="E449" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="E449" s="2" t="s">
+      <c r="F449" s="1" t="s">
         <v>1590</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C450" s="1" t="s">
+      <c r="E450" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="E450" s="2" t="s">
+      <c r="F450" s="1" t="s">
         <v>1594</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C451" s="1" t="s">
+      <c r="E451" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="E451" s="2" t="s">
+      <c r="F451" s="1" t="s">
         <v>1598</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1601</v>
-      </c>
       <c r="E452" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F452" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C453" s="1" t="s">
+      <c r="E453" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="E453" s="2" t="s">
+      <c r="F453" s="1" t="s">
         <v>1604</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C454" s="1" t="s">
+      <c r="E454" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="E454" s="2" t="s">
+      <c r="F454" s="1" t="s">
         <v>1608</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C455" s="1" t="s">
+      <c r="E455" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="E455" s="2" t="s">
+      <c r="F455" s="1" t="s">
         <v>1612</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C456" s="1" t="s">
+      <c r="E456" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="E456" s="2" t="s">
+      <c r="F456" s="1" t="s">
         <v>1616</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C457" s="1" t="s">
+      <c r="E457" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="E457" s="2" t="s">
+      <c r="F457" s="1" t="s">
         <v>1620</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C458" s="1" t="s">
+      <c r="E458" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="E458" s="2" t="s">
+      <c r="F458" s="1" t="s">
         <v>1624</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C459" s="1" t="s">
+      <c r="E459" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="E459" s="2" t="s">
+      <c r="F459" s="1" t="s">
         <v>1628</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C460" s="1" t="s">
+      <c r="E460" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="E460" s="2" t="s">
+      <c r="F460" s="1" t="s">
         <v>1632</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C461" s="1" t="s">
+      <c r="E461" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="E461" s="2" t="s">
+      <c r="F461" s="1" t="s">
         <v>1636</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C462" s="1" t="s">
+      <c r="E462" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="E462" s="2" t="s">
+      <c r="F462" s="1" t="s">
         <v>1640</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C463" s="1" t="s">
+      <c r="E463" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="E463" s="2" t="s">
+      <c r="F463" s="1" t="s">
         <v>1644</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C464" s="1" t="s">
+      <c r="E464" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="E464" s="2" t="s">
+      <c r="F464" s="1" t="s">
         <v>1648</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="E466" s="4" t="s">
         <v>1652</v>
       </c>
-      <c r="E466" s="4" t="s">
+      <c r="F466" s="1" t="s">
         <v>1653</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C467" s="1" t="s">
+      <c r="E467" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="F467" s="1" t="s">
         <v>1657</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C468" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E468" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="E468" s="1" t="s">
+      <c r="F468" s="1" t="s">
         <v>1661</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C469" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E469" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="E469" s="1" t="s">
+      <c r="F469" s="1" t="s">
         <v>1665</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C470" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E470" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="E470" s="1" t="s">
+      <c r="F470" s="1" t="s">
         <v>1669</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C471" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E471" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="E471" s="1" t="s">
+      <c r="F471" s="1" t="s">
         <v>1673</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E472" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F472" s="1" t="s">
         <v>1673</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E473" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F473" s="1" t="s">
         <v>1673</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="C474" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="C474" s="1" t="s">
+      <c r="E474" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="E474" s="1" t="s">
+      <c r="F474" s="1" t="s">
         <v>1682</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C475" s="1" t="s">
+      <c r="E475" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="E475" s="1" t="s">
+      <c r="F475" s="1" t="s">
         <v>1686</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="C476" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="E476" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="E476" s="1" t="s">
+      <c r="F476" s="1" t="s">
         <v>1691</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C477" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C477" s="1" t="s">
+      <c r="E477" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="E477" s="1" t="s">
+      <c r="F477" s="1" t="s">
         <v>1695</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C478" s="1" t="s">
+      <c r="E478" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="E478" s="1" t="s">
+      <c r="F478" s="1" t="s">
         <v>1699</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>1702</v>
-      </c>
       <c r="E479" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F479" s="1" t="s">
         <v>1691</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>1704</v>
-      </c>
       <c r="E480" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F480" s="1" t="s">
         <v>1695</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C481" s="1" t="s">
+      <c r="E481" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="E481" s="1" t="s">
+      <c r="F481" s="5" t="s">
         <v>1707</v>
-      </c>
-      <c r="F481" s="5" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="C482" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="E482" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="E482" s="1" t="s">
+      <c r="F482" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C483" s="1" t="s">
+      <c r="E483" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="E483" s="1" t="s">
+      <c r="F483" s="1" t="s">
         <v>1716</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C484" s="1" t="s">
+      <c r="E484" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F484" s="1" t="s">
         <v>1719</v>
-      </c>
-      <c r="E484" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C485" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E485" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="E485" s="1" t="s">
+      <c r="F485" s="1" t="s">
         <v>1723</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E486" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F486" s="1" t="s">
         <v>1723</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C487" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E487" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="E487" s="1" t="s">
+      <c r="F487" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C488" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E488" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="E488" s="1" t="s">
+      <c r="F488" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E489" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F489" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C490" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E490" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="E490" s="1" t="s">
+      <c r="F490" s="1" t="s">
         <v>1739</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C491" s="1" t="s">
+      <c r="E491" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="E491" s="4" t="s">
+      <c r="F491" s="1" t="s">
         <v>1743</v>
-      </c>
-      <c r="F491" s="1" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -21467,33 +21856,33 @@
         <v>1744</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E492" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F492" s="1" t="s">
         <v>1743</v>
-      </c>
-      <c r="F492" s="1" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -21501,16 +21890,16 @@
         <v>1749</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C494" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="E494" s="1" t="s">
+      <c r="F494" s="1" t="s">
         <v>1752</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -21518,16 +21907,16 @@
         <v>1753</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C495" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E495" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="E495" s="1" t="s">
+      <c r="F495" s="1" t="s">
         <v>1756</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -21535,16 +21924,16 @@
         <v>1757</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C496" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E496" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="E496" s="1" t="s">
+      <c r="F496" s="1" t="s">
         <v>1760</v>
-      </c>
-      <c r="F496" s="1" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -21555,18 +21944,18 @@
         <v>7</v>
       </c>
       <c r="C497" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E497" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="E497" s="4" t="s">
-        <v>1764</v>
-      </c>
       <c r="F497" s="4" t="s">
-        <v>1841</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="498" spans="1:6">
       <c r="A498" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>7</v>
@@ -21578,452 +21967,657 @@
         <v>1767</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1842</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="499" spans="1:6">
       <c r="A499" s="1" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1843</v>
+        <v>1772</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1844</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="500" spans="1:6">
       <c r="A500" s="1" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1845</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="1" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1846</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="1" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1847</v>
+        <v>1784</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1848</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="1" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1780</v>
+        <v>1787</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1849</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="504" spans="1:6">
       <c r="A504" s="1" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1850</v>
+        <v>1792</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1851</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="505" spans="1:6">
       <c r="A505" s="1" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1853</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="506" spans="1:6">
       <c r="A506" s="1" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1789</v>
+        <v>1800</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1854</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="507" spans="1:6">
       <c r="A507" s="1" t="s">
-        <v>1790</v>
+        <v>1801</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1791</v>
+        <v>1803</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1792</v>
+        <v>1804</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1852</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="508" spans="1:6">
       <c r="A508" s="1" t="s">
-        <v>1793</v>
+        <v>1805</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1794</v>
+        <v>1807</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1795</v>
+        <v>1808</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1855</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="509" spans="1:6">
       <c r="A509" s="1" t="s">
-        <v>1796</v>
+        <v>1809</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1797</v>
+        <v>1811</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1798</v>
+        <v>1812</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1868</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="510" spans="1:6">
       <c r="A510" s="1" t="s">
-        <v>1799</v>
+        <v>1813</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1800</v>
+        <v>1815</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1801</v>
+        <v>1816</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1856</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="511" spans="1:6">
       <c r="A511" s="1" t="s">
-        <v>1802</v>
+        <v>1817</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1803</v>
+        <v>1819</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1849</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="512" spans="1:6">
       <c r="A512" s="1" t="s">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1805</v>
+        <v>1820</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1806</v>
+        <v>1822</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1857</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="513" spans="1:6">
       <c r="A513" s="1" t="s">
-        <v>1807</v>
+        <v>1823</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1809</v>
+        <v>1826</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="514" spans="1:6">
       <c r="A514" s="1" t="s">
-        <v>1810</v>
+        <v>1827</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1811</v>
+        <v>1829</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>1809</v>
+        <v>1826</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="1" t="s">
-        <v>1812</v>
+        <v>1831</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>1814</v>
+        <v>1832</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1859</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="1" t="s">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1816</v>
+        <v>1835</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1817</v>
+        <v>1836</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1860</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="1" t="s">
-        <v>1818</v>
+        <v>1837</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>1817</v>
+        <v>1836</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1860</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="518" spans="1:6">
       <c r="A518" s="1" t="s">
-        <v>1820</v>
+        <v>1841</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1821</v>
+        <v>1840</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1861</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="519" spans="1:6">
       <c r="A519" s="1" t="s">
-        <v>1823</v>
+        <v>1843</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1824</v>
+        <v>1845</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1825</v>
+        <v>1846</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="520" spans="1:6">
       <c r="A520" s="1" t="s">
-        <v>1826</v>
+        <v>1847</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1827</v>
+        <v>1849</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1828</v>
+        <v>1850</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="521" spans="1:6">
       <c r="A521" s="1" t="s">
-        <v>1829</v>
+        <v>1851</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1830</v>
+        <v>1853</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1831</v>
+        <v>1854</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="522" spans="1:6">
       <c r="A522" s="1" t="s">
-        <v>1832</v>
+        <v>1855</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1833</v>
+        <v>1857</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1834</v>
+        <v>1858</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="1" t="s">
-        <v>1835</v>
+        <v>1859</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1836</v>
+        <v>1861</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1837</v>
+        <v>1862</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="524" spans="1:6">
       <c r="A524" s="1" t="s">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1839</v>
+        <v>1865</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1840</v>
+        <v>1866</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E525" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>1903</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E536" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>

--- a/Data/Characters - Blue Archive - 3284538085/Characters - Blue Archive - 3284538085.xlsx
+++ b/Data/Characters - Blue Archive - 3284538085/Characters - Blue Archive - 3284538085.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Characters - Blue Archive - 3284538085\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D49229-37C8-42A8-AA48-B8A56BC7AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C80CE-28E1-41A7-A6AA-22F5610FD328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6076,9 +6076,70 @@
           </rPr>
           <t>2024-12-20에 새로 추가된 노드들 (25개)</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="E491" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D1010000}">
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-04-14에 삭제됨. 삭제 이전 번역문: '시로코 능력'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E467" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D1010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-04-14에 삭제됨. 삭제 이전 번역문: '시로코 능력 설명(WIP)'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E482" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D2010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-04-14에 삭제됨. 삭제 이전 번역문: '시로코 드론'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E483" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D3010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-04-14에 삭제됨. 삭제 이전 번역문: '시로코의 드론입니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E484" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D4010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-04-14에 삭제됨. 삭제 이전 번역문: '드론 탄환'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E491" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D5010000}">
       <text>
         <r>
           <rPr>
@@ -6091,7 +6152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E497" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D2010000}">
+    <comment ref="E497" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D6010000}">
       <text>
         <r>
           <rPr>
@@ -6104,7 +6165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F497" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D3010000}">
+    <comment ref="F497" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D7010000}">
       <text>
         <r>
           <rPr>
@@ -6117,7 +6178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E525" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D4010000}">
+    <comment ref="E525" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D8010000}">
       <text>
         <r>
           <rPr>
@@ -6127,6 +6188,45 @@
             <family val="2"/>
           </rPr>
           <t>2025-01-27에 새로 추가된 노드들 (12개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E537" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D9010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-04-14에 새로 추가된 노드들 (20개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E557" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DA010000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-05-11에 새로 추가된 노드들 (8개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F557" authorId="0" shapeId="0" xr:uid="{350BCE8A-4761-428C-9DFD-875A873C9B3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-05-11에 새로 추가된 노드들 (8개)</t>
         </r>
       </text>
     </comment>
@@ -6135,7 +6235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="2013">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -10319,6 +10419,18 @@
     <t>contradictory</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소식가</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>TraitDef+BA_Contradictory.degreeDatas.0.description</t>
   </si>
   <si>
@@ -10493,7 +10605,7 @@
     <t>BA_Bookworm.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>BackstoryDef+BA_SanctusLeader.title</t>
+    <t>{PAWN_nameDef} loves books, often stays in the library. if there are books in the colony, {PAWN_pronoun} would be really happy.</t>
   </si>
   <si>
     <t>{PAWN_nameDef}(은)는 책을 좋아하며, 특히 고서적에 대한 사랑이 깊습니다. 고서적을 해석하고 관리하는 데 하루를 보냅니다.</t>
@@ -10814,18 +10926,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>키보토스의 "학생"들은 가공할 만한 체력과 뛰어난 공격 및 방어 능력, 심지어 재생 능력까지 갖추고 있어 총알은 물론 전차 포탄까지도 버텨낼 수 있습니다. 평범한 학생조차 5.56x45mm NATO 탄을 30~90발 가량 쏟아부어야 한두 시간 기절시킬 수 있으며, 일부 특별한 학생들은 상상을 초월하는 특수 능력까지 보유하고 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>XenotypeDef+KivotosStudent.descriptionShort</t>
   </si>
   <si>
@@ -10833,18 +10933,6 @@
   </si>
   <si>
     <t>The "students" of Kivotos, Which possess great physical strength and excellent attack, defense, and even regeneration abilities.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>키보토스의 "학생"들은 가공할 만한 체력과 뛰어난 공격 및 방어 능력, 심지어 재생 능력까지 갖추고 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Keyed+CallRecruit</t>
@@ -11168,18 +11256,6 @@
     <t>Ability_Shiroko_label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>시로코 능력</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>AbilityDef+Ability_Shiroko.description</t>
   </si>
   <si>
@@ -11187,18 +11263,6 @@
   </si>
   <si>
     <t>Ability_Shiroko_description (In develop)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>시로코 능력 설명(WIP)</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>BackstoryDef+BA_BlackTortoisePromenadeChairman.title</t>
@@ -12155,18 +12219,6 @@
     <t>Gun_ShirokoDrone_Lable</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>시로코 드론</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>ThingDef+Gun_ShirokoDrone.description</t>
   </si>
   <si>
@@ -12176,34 +12228,10 @@
     <t>Gun_ShirokoDrone_Description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>시로코의 드론입니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>ThingDef+Gun_ShirokoDrone.verbs.Verb_Shoot.label</t>
   </si>
   <si>
     <t>Gun_ShirokoDrone.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>드론 탄환</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>FixedPawnGenerate.FixedPawnDef+Arisu.firstName</t>
@@ -12419,9 +12447,6 @@
     <t>After-School Sweets Club Troublemaker</t>
   </si>
   <si>
-    <t>BackstoryDef+BA_SweetsClubTroublemaker.titleShort</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12434,6 +12459,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_SweetsClubTroublemaker.titleShort</t>
+  </si>
+  <si>
     <t>BA_SweetsClubTroublemaker.titleShort</t>
   </si>
   <si>
@@ -12447,9 +12475,6 @@
   </si>
   <si>
     <t>BA_SweetsClubTroublemaker.description</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_EngineeringClubLeader.title</t>
   </si>
   <si>
     <r>
@@ -12476,13 +12501,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_EngineeringClubLeader.title</t>
+  </si>
+  <si>
     <t>BA_EngineeringClubLeader.title</t>
   </si>
   <si>
     <t>Engineering Club Leader</t>
-  </si>
-  <si>
-    <t>BackstoryDef+BA_EngineeringClubLeader.titleShort</t>
   </si>
   <si>
     <r>
@@ -12497,6 +12522,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_EngineeringClubLeader.titleShort</t>
+  </si>
+  <si>
     <t>BA_EngineeringClubLeader.titleShort</t>
   </si>
   <si>
@@ -12521,9 +12549,6 @@
     <t>BA_EngineeringClubLeader.description</t>
   </si>
   <si>
-    <t>ThoughtDef+BA_Romanticist.stages.0.label</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12536,16 +12561,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{PAWN_nameDef}(은)는 밀레니엄 학원 엔지니어부의 부장입니다.\n\n{PAWN_nameDef}(은)는 엔지니어부의 부장이라는 직함을 증명이라도 하듯 다양한 로봇을 발명하였으며, 특히 {PAWN_pronoun}의 애완로봇 "천둥이"는 PMC의 전투용 오토마타 수백 대에 달하는 전투 능력을 갖추었다고 평가받고 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>ThoughtDef+BA_Romanticist.stages.0.label</t>
   </si>
   <si>
     <t>ThoughtDef</t>
@@ -12555,9 +12571,6 @@
   </si>
   <si>
     <t>romanticist</t>
-  </si>
-  <si>
-    <t>ThoughtDef+BA_RomanticistPresence.stages.0.label</t>
   </si>
   <si>
     <r>
@@ -12572,7 +12585,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Romanticist presence</t>
+    <t>ThoughtDef+BA_RomanticistPresence.stages.0.label</t>
   </si>
   <si>
     <r>
@@ -12587,7 +12600,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>ThoughtDef+BA_RomanticistPresence.stages.0.description</t>
+    <t>Romanticist presence</t>
   </si>
   <si>
     <r>
@@ -12602,13 +12615,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThoughtDef+BA_RomanticistPresence.stages.0.description</t>
+  </si>
+  <si>
     <t>BA_RomanticistPresence.stages.0.description</t>
   </si>
   <si>
     <t>I felt the beauty and poetry of life in this colony, as if everything became more beautiful.</t>
-  </si>
-  <si>
-    <t>ThoughtDef+BA_Sensei.stages.0.label</t>
   </si>
   <si>
     <r>
@@ -12623,13 +12636,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThoughtDef+BA_Sensei.stages.0.label</t>
+  </si>
+  <si>
     <t>BA_Sensei.stages.0.label</t>
   </si>
   <si>
     <t>sensei</t>
-  </si>
-  <si>
-    <t>ThoughtDef+BA_SenseiPresence.stages.0.label</t>
   </si>
   <si>
     <r>
@@ -12644,13 +12657,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThoughtDef+BA_SenseiPresence.stages.0.label</t>
+  </si>
+  <si>
     <t>BA_SenseiPresence.stages.0.label</t>
   </si>
   <si>
     <t>Sensei presence</t>
-  </si>
-  <si>
-    <t>ThoughtDef+BA_SenseiPresence.stages.0.description</t>
   </si>
   <si>
     <r>
@@ -12665,13 +12678,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>ThoughtDef+BA_SenseiPresence.stages.0.description</t>
+  </si>
+  <si>
     <t>BA_SenseiPresence.stages.0.description</t>
   </si>
   <si>
     <t>Sensei is right next to me, I'm so happy.</t>
-  </si>
-  <si>
-    <t>TraitDef+BA_Sensei.degreeDatas.0.label</t>
   </si>
   <si>
     <r>
@@ -12686,6 +12699,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>TraitDef+BA_Sensei.degreeDatas.0.label</t>
+  </si>
+  <si>
     <t>BA_Sensei.degreeDatas.0.label</t>
   </si>
   <si>
@@ -12713,9 +12729,6 @@
     <t>{PAWN_nameDef}is the Kivotos sensei deeply loved by the students.</t>
   </si>
   <si>
-    <t>TraitDef+BA_Romanticist.degreeDatas.0.label</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12728,19 +12741,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>TraitDef+BA_Romanticist.degreeDatas.0.label</t>
+  </si>
+  <si>
     <t>BA_Romanticist.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>TraitDef+BA_Romanticist.degreeDatas.0.description</t>
+  </si>
+  <si>
     <t>BA_Romanticist.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>TraitDef+BA_Romanticist.degreeDatas.0.description</t>
-  </si>
-  <si>
     <t>{PAWN_nameDef}is a firm believer in romanticism and often describes every detail of life in poetic language. {PAWN_pronoun} presence brings a romantic atmosphere to those around her.</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Utaha.firstName</t>
   </si>
   <si>
     <r>
@@ -12755,13 +12768,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Utaha.firstName</t>
+  </si>
+  <si>
     <t>Utaha.firstName</t>
   </si>
   <si>
     <t>Utaha</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Utaha.nickName</t>
   </si>
   <si>
     <r>
@@ -12776,19 +12789,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Utaha.nickName</t>
+  </si>
+  <si>
     <t>Utaha.nickName</t>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Utaha.lastName</t>
+  </si>
+  <si>
     <t>Utaha.lastName</t>
   </si>
   <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Utaha.lastName</t>
-  </si>
-  <si>
     <t>Shiraishi</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Natsu.firstName</t>
   </si>
   <si>
     <r>
@@ -12803,13 +12816,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Natsu.firstName</t>
+  </si>
+  <si>
     <t>Natsu.firstName</t>
   </si>
   <si>
     <t>Natsu</t>
-  </si>
-  <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Natsu.nickName</t>
   </si>
   <si>
     <r>
@@ -12824,19 +12837,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Natsu.nickName</t>
+  </si>
+  <si>
     <t>Natsu.nickName</t>
   </si>
   <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Natsu.lastName</t>
+  </si>
+  <si>
     <t>Natsu.lastName</t>
   </si>
   <si>
-    <t>FixedPawnGenerate.FixedPawnDef+Natsu.lastName</t>
-  </si>
-  <si>
     <t>Yutori</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiPortraitOffsetX</t>
   </si>
   <si>
     <r>
@@ -12851,13 +12864,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiPortraitOffsetX</t>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetX</t>
   </si>
   <si>
     <t>Offset X</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiPortraitOffsetX_description</t>
   </si>
   <si>
     <r>
@@ -12872,13 +12885,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiPortraitOffsetX_description</t>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetX_description</t>
   </si>
   <si>
     <t>Horizontal offset</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiPortraitOffsetY</t>
   </si>
   <si>
     <r>
@@ -12893,13 +12906,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiPortraitOffsetY</t>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetY</t>
   </si>
   <si>
     <t>Offset Y</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiPortraitOffsetYBuffer_description</t>
   </si>
   <si>
     <r>
@@ -12914,13 +12927,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiPortraitOffsetYBuffer_description</t>
+  </si>
+  <si>
     <t>BA_senseiPortraitOffsetYBuffer_description</t>
   </si>
   <si>
     <t>Vertical offset</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiPortraitScale</t>
   </si>
   <si>
     <r>
@@ -12935,13 +12948,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiPortraitScale</t>
+  </si>
+  <si>
     <t>BA_senseiPortraitScale</t>
   </si>
   <si>
     <t>Scale</t>
-  </si>
-  <si>
-    <t>Keyed+BA_senseiPortraitScaleBuffer_description</t>
   </si>
   <si>
     <r>
@@ -12956,13 +12969,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA_senseiPortraitScaleBuffer_description</t>
+  </si>
+  <si>
     <t>BA_senseiPortraitScaleBuffer_description</t>
   </si>
   <si>
     <t>Scale of the picture</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} loves books, often stays in the library. if there are books in the colony, {PAWN_pronoun} would be really happy.</t>
   </si>
   <si>
     <r>
@@ -12977,24 +12990,75 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>BackstoryDef+BA_SanctusLeader.title</t>
+  </si>
+  <si>
     <t>BA_SanctusLeader.title</t>
   </si>
   <si>
     <t>SanctusLeader Leader</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상투스 분파 수장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BA_SanctusLeader.titleShort</t>
   </si>
   <si>
     <t>BA_SanctusLeader.titleShort</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BackstoryDef+BA_SanctusLeader.description</t>
   </si>
   <si>
     <t>BA_SanctusLeader.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>A member of Trinity Integrated Academy, {PAWN_nameDef} is the leader of the "Sanctus" student union, one of the Trinity factions. She is pedantic and difficult to please. Being a bookworm, Seia is often found in the Great Library. After recovering from her injuries, she sometimes shows her more childish side.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 트리니티 종합학원을 구성하고 있는 티파티의 일원이자 '상투스'의 수장입니다. 주변에서는 현학적이고 종잡기 어려운 사람으로 여겨지고, 조금은 제멋대로인 귀족과 같은 면모가 있습니다. 건강이 돌아온 이후로는 전보다 조금 더 고집스럽고 장난기 있는 어린아이 같은 모습도 종종 보입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_Bookworm.stages.0.label</t>
   </si>
   <si>
@@ -13004,6 +13068,18 @@
     <t>Some books</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>책이 있음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_Bookworm.stages.0.description</t>
   </si>
   <si>
@@ -13013,6 +13089,18 @@
     <t>There are some books in the colony.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착지에 책이 있어.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_Bookworm.stages.1.label</t>
   </si>
   <si>
@@ -13022,6 +13110,18 @@
     <t>A lot of books</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>책이 많음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_Bookworm.stages.1.description</t>
   </si>
   <si>
@@ -13031,6 +13131,18 @@
     <t>There are a lot of books in the colony.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착지에 책이 많아.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_Bookworm.stages.2.label</t>
   </si>
   <si>
@@ -13040,6 +13152,18 @@
     <t>A library</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>도서관</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThoughtDef+BA_Bookworm.stages.2.description</t>
   </si>
   <si>
@@ -13049,6 +13173,18 @@
     <t>The colony has enough books to establish a library.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착지에 책이 정말 많아. 도서관을 지어도 되겠어.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FixedPawnGenerate.FixedPawnDef+Seia.firstName</t>
   </si>
   <si>
@@ -13058,6 +13194,18 @@
     <t>Seia</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세이아</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>FixedPawnGenerate.FixedPawnDef+Seia.nickName</t>
   </si>
   <si>
@@ -13073,55 +13221,500 @@
     <t>Yurizono</t>
   </si>
   <si>
-    <t>상투스 분파 수장</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>유리조노</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Kanna.title</t>
+  </si>
+  <si>
+    <t>BA_Kanna.title</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Kanna.titleShort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Head of the Public Security Bureau</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공안국 국장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Kanna.titleShort</t>
+  </si>
+  <si>
+    <t>Mad Dog</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Kanna.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미친개</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Kanna.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is a student of Valkyrie Police Academy, {PAWN_nameDef} serves as head of the Public Security Bureau. She is known by the 'Mad Dog' nickname for her relentless pursuit of truth in the criminal investigations. Her threatening demeanor and nickname may lead some to assume that {PAWN_nameDef} is a violent person, but in fact she is always calm and pragmatic.</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Kirino.title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 발키리 경찰학교, 공안국의 국장 업무를 맡고 있는 경찰 학생입니다. 한 번 목표로 삼은 범죄는 포기하지 않고 집요하게 탐문하여 진상을 밝혀내기 때문에 세간에는 '미친개'라는 별명으로 더 잘 알려져 있습니다. 특유의 사나운 인상과 별명 때문에 다혈질인 학생이라는 오해를 자주 받지만, 사실 {PAWN_nameDef}(은)는 매사에 침착하고 현실적인 가치관의 소유자입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Kirino.title</t>
+  </si>
+  <si>
+    <t>Student of the Community Safety Bureau</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Kirino.titleShort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생활안전국 학생</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Kirino.titleShort</t>
+  </si>
+  <si>
+    <t>Police officer</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Kirino.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>경찰</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Kirino.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is an enthusiastic student belonging to the Community Safety Bureau of Valkyrie Police Academy.\n\nLooking up to the police officers who maintain law and order in the city, {PAWN_nameDef} enrolled in the Valkyrie Police Academy, but was placed in the Community Safety Bureau due to her fatally poor shooting skills.\n\nNevertheless, she doesn't give up on her dream, and strives everyday to become a police officer who can skilfully suppress criminals.</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Michiru.title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 발키리 경찰학교 생활안전국의 열혈 경찰 학생입니다. 학원도시의 치안을 유지하는 선배들의 모습을 동경해 발키리 경찰학교에 진학하였으나, 사격 솜씨가 형편없었던 탓에 한직인 생활안전국으로 전과하게 되었습니다. 하지만 여전히 범인을 멋지게 제압하는 경찰이 되고자 하는 꿈을 버리지 않고 여러 방면에서 노력하고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Michiru.title</t>
+  </si>
+  <si>
+    <t>Director of the Ninjutsu Research Department</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Michiru.titleShort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>인법연구부 부장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Michiru.titleShort</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Michiru.description</t>
+  </si>
+  <si>
+    <t>BA_Michiru.description</t>
+  </si>
+  <si>
+    <t>A student of Hyakkiyako Alliance Academy and director of the Ninjutsu Research Department, {PAWN_nameDef} is always full of unfounded self-confidence. She is an otaku who loves ninja movies, anime, and goods. {PAWN_nameDef} is running around with the members of the Ninjutsu Research Department today to let everyone throughout Kivotos know of the greatness of ninjas.</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Relentless.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>백귀야행 학원 인법연구부의 부장 겸 동영상 채널 '소녀인법첩 미치룻치'의 운영자입니다. 어째서인지 늘 근거 없는 자신감에 차 있습니다. 닌자라면 장르를 불문하고 무척이나 좋아하는 닌자 오타쿠이기도 하며, 인법연구부를 만든 것도, 닌자 관련 동영상 채널을 운영하는 것도 전부 그 때문. 키보토스에 전례 없는 닌자 붐을 불러오고자, 오늘도 인법연구부 멤버들과 함께 좌충우돌 종횡무진으로 활약하고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Relentless.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relentless </t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Relentless.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>끈기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Relentless.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} doesn’t give up easily and is always focused on their goals. Even when facing huge difficulties, they can show extraordinary perseverance.</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Michiru.firstName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}(은)는 쉽게 포기하지 않고 항상 목표에 집중합니다. 큰 어려움에 직면했을 때에도 놀라운 인내심을 발휘할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michiru.firstName</t>
+  </si>
+  <si>
+    <t>Michiru</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Michiru.nickName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미치루</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michiru.nickName</t>
+  </si>
+  <si>
+    <t>Michiru.lastName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Michiru.lastName</t>
+  </si>
+  <si>
+    <t>Chidori</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Kirino.firstName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>치도리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirino.firstName</t>
+  </si>
+  <si>
+    <t>Kirino</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Kirino.nickName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>키리노</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirino.nickName</t>
+  </si>
+  <si>
+    <t>Kirino.lastName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Kirino.lastName</t>
+  </si>
+  <si>
+    <t>Nakatsukasa</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Kanna.firstName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>나카츠카사</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanna.firstName</t>
+  </si>
+  <si>
+    <t>Kanna</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Kanna.nickName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>칸나</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanna.nickName</t>
+  </si>
+  <si>
+    <t>Kanna.lastName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Kanna.lastName</t>
+  </si>
+  <si>
+    <t>Ogata</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Rio.title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오가타</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA_Rio.title</t>
+  </si>
+  <si>
+    <t>President of the "Seminar"</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Rio.titleShort</t>
+  </si>
+  <si>
+    <t>BA_Rio.titleShort</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BA_Rio.description</t>
+  </si>
+  <si>
+    <t>BA_Rio.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is the president of the "Seminar" student council at the Millennium Science School. {PAWN_nameDef} is a rationalist, she will do anything to ensure the safety of the Millennium and the world. As a result, she is known as the "Big Sister". She has a peculiar sense of style, as can be seen in "Avant-Guard-kun".</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Rationalist.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>BA_Rationalist.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>rationalist</t>
+  </si>
+  <si>
+    <t>TraitDef+BA_Rationalist.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>BA_Rationalist.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} believes that logic and reason are the keys to solving any problem.\nWhile {PAWN_pronoun} may seem somewhat distant in interpersonal interactions, {Pawn_pronoun} tends to remain calmer than others when dealing with crises.</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Rio.firstName</t>
+  </si>
+  <si>
+    <t>Rio.firstName</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Rio.nickName</t>
+  </si>
+  <si>
+    <t>Rio.nickName</t>
+  </si>
+  <si>
+    <t>FixedPawnGenerate.FixedPawnDef+Rio.lastName</t>
+  </si>
+  <si>
+    <t>Rio.lastName</t>
+  </si>
+  <si>
+    <t>Tsukatsuki</t>
+  </si>
+  <si>
+    <t>리오</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>수장</t>
+    <t>츠카츠키</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>유리조노</t>
+    <t>합리주의자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>세이아</t>
+    <t>키보토스의 '학생'들은 가공할 만한 체력과 뛰어난 공격 및 방어 능력, 심지어 재생 능력까지 갖추고 있어 총알은 물론 전차 포탄까지도 버텨낼 수 있습니다. 평범한 학생조차 5.56x45mm NATO 탄을 30~90발 가량 쏟아부어야 한두 시간 기절시킬 수 있으며, 일부 특별한 학생들은 상상을 초월하는 특수 능력까지 보유하고 있습니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보토스의 '학생'들은 가공할 만한 체력과 뛰어난 공격 및 방어 능력, 심지어 재생 능력까지 갖추고 있습니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보토스 학생</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A member of Trinity Integrated Academy, {PAWN_nameDef} is the leader of the "Sanctus" student union, one of the Trinity factions. She is pedantic and difficult to please. Being a bookworm, Seia is often found in the Great Library. After recovering from her injuries, she sometimes shows her more childish side.</t>
+    <t>{PAWN_nameDef}(은)는 밀레니엄 학원 엔지니어부의 부장입니다.\n\n{PAWN_nameDef}(은)는 엔지니어부의 부장이라는 직함을 증명이라도 하듯 다양한 로봇을 발명하였으며, 특히 {PAWN_pronoun}의 애완로봇 '천둥이'는 PMC의 전투용 오토마타 수백 대에 달하는 전투 능력을 갖추었다고 평가받고 있습니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 회장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{PAWN_nameDef}(은)는 트리니티 종합학원을 구성하고 있는 티파티의 일원이자 '상투스'의 수장입니다. 주변에서는 현학적이고 종잡기 어려운 사람으로 여겨지고, 조금은 제멋대로인 귀족과 같은 면모가 있습니다. 건강이 돌아온 이후로는 전보다 조금 더 고집스럽고 장난기 있는 어린아이 같은 모습도 종종 보입니다.</t>
+    <t>회장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>도서관</t>
+    <t>{PAWN_nameDef}(은)는 밀레니엄 학원 학생회 '세미나'의 회장입니다. {PAWN_nameDef}(이)가 바라는 것은 밀레니엄과 세계의 안전이며, 그것을 위해서라면 수단과 방법을 가리지 않습니다. 그 결과, 모두에게 '빅 시스터'라고 불리게 되었습니다. 여러모로 독특한 센스와 감성의 소유자로, 일부 학생들에게만 알려져 있는 '아방가르드 군' 역시 그 센스의 일부만이 발현된 것이라고 합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>책이 많음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>책이 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착지에 책이 있어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착지에 책이 많아.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착지에 책이 정말 많아. 도서관을 지어도 되겠어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소식가</t>
+    <t>{PAWN_nameDef}(은)는 논리와 이성이 모든 문제를 해결하는 열쇠라고 믿습니다.\n{PAWN_pronoun}(은)는 대인 관계에서 상당히 미숙한 모습을 보이지만, {Pawn_pronoun}에게 위기가 닥쳤을 때는 다른 사람들보다 침착하게 대처합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -13524,10 +14117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F536"/>
+  <dimension ref="A1:F564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="I550" sqref="I550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
@@ -20287,704 +20880,704 @@
         <v>1387</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1913</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1867</v>
+        <v>1447</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>1343</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1315</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1550</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -20992,7 +21585,7 @@
         <v>1551</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>1552</v>
@@ -21001,1517 +21594,1502 @@
         <v>1553</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1554</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="E441" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="E441" s="2" t="s">
+      <c r="F441" s="1" t="s">
         <v>1558</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C442" s="1" t="s">
+      <c r="E442" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="E442" s="2" t="s">
+      <c r="F442" s="1" t="s">
         <v>1562</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C443" s="1" t="s">
+      <c r="E443" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="E443" s="2" t="s">
+      <c r="F443" s="1" t="s">
         <v>1566</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C444" s="1" t="s">
+      <c r="E444" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="E444" s="2" t="s">
+      <c r="F444" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C445" s="1" t="s">
+      <c r="E445" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="E445" s="2" t="s">
+      <c r="F445" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C446" s="1" t="s">
+      <c r="E446" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="E446" s="2" t="s">
+      <c r="F446" s="1" t="s">
         <v>1578</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C447" s="1" t="s">
+      <c r="E447" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="E447" s="2" t="s">
+      <c r="F447" s="1" t="s">
         <v>1582</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C448" s="1" t="s">
+      <c r="E448" s="3" t="s">
         <v>1585</v>
-      </c>
-      <c r="E448" s="3" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C449" s="1" t="s">
+      <c r="E449" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="E449" s="2" t="s">
+      <c r="F449" s="1" t="s">
         <v>1589</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C450" s="1" t="s">
+      <c r="E450" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="E450" s="2" t="s">
+      <c r="F450" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C451" s="1" t="s">
+      <c r="E451" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="E451" s="2" t="s">
+      <c r="F451" s="1" t="s">
         <v>1597</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1600</v>
-      </c>
       <c r="E452" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F452" s="1" t="s">
         <v>1566</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C453" s="1" t="s">
+      <c r="E453" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="E453" s="2" t="s">
+      <c r="F453" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C454" s="1" t="s">
+      <c r="E454" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="E454" s="2" t="s">
+      <c r="F454" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C455" s="1" t="s">
+      <c r="E455" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="E455" s="2" t="s">
+      <c r="F455" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C456" s="1" t="s">
+      <c r="E456" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="E456" s="2" t="s">
+      <c r="F456" s="1" t="s">
         <v>1615</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C457" s="1" t="s">
+      <c r="E457" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="E457" s="2" t="s">
+      <c r="F457" s="1" t="s">
         <v>1619</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C458" s="1" t="s">
+      <c r="E458" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="E458" s="2" t="s">
+      <c r="F458" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C459" s="1" t="s">
+      <c r="E459" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="E459" s="2" t="s">
+      <c r="F459" s="1" t="s">
         <v>1627</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C460" s="1" t="s">
+      <c r="E460" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="E460" s="2" t="s">
+      <c r="F460" s="1" t="s">
         <v>1631</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C461" s="1" t="s">
+      <c r="E461" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="E461" s="2" t="s">
+      <c r="F461" s="1" t="s">
         <v>1635</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C462" s="1" t="s">
+      <c r="E462" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="E462" s="2" t="s">
+      <c r="F462" s="1" t="s">
         <v>1639</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C463" s="1" t="s">
+      <c r="E463" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="E463" s="2" t="s">
+      <c r="F463" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C464" s="1" t="s">
+      <c r="E464" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="E464" s="2" t="s">
+      <c r="F464" s="1" t="s">
         <v>1647</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="E466" s="3" t="s">
         <v>1651</v>
-      </c>
-      <c r="E466" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E467" s="3" t="s">
         <v>1654</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="1" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="1" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="1" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="1" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="1" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E474" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="F474" s="1" t="s">
         <v>1679</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F475" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E475" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E476" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="F476" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F477" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F478" s="1" t="s">
         <v>1696</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E478" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="1" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="B479" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F479" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E479" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F481" s="5" t="s">
         <v>1704</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E481" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F481" s="5" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E482" s="3" t="s">
         <v>1708</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E482" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>1716</v>
+        <v>1710</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="1" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E484" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>1719</v>
+        <v>1713</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="1" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="1" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="1" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="1" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="1" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="1" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="1" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="492" spans="1:6">
       <c r="A492" s="1" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="1" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="1" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="1" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="1" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="497" spans="1:6">
       <c r="A497" s="1" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="F497" s="4" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="498" spans="1:6">
       <c r="A498" s="1" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="499" spans="1:6">
       <c r="A499" s="1" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="500" spans="1:6">
       <c r="A500" s="1" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="1" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="1" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1785</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="1" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="504" spans="1:6">
       <c r="A504" s="1" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="B504" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F504" s="1" t="s">
         <v>1786</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="505" spans="1:6">
       <c r="A505" s="1" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="506" spans="1:6">
       <c r="A506" s="1" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="507" spans="1:6">
       <c r="A507" s="1" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="508" spans="1:6">
       <c r="A508" s="1" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="509" spans="1:6">
       <c r="A509" s="1" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="510" spans="1:6">
       <c r="A510" s="1" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="511" spans="1:6">
       <c r="A511" s="1" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="512" spans="1:6">
       <c r="A512" s="1" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="513" spans="1:6">
       <c r="A513" s="1" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="514" spans="1:6">
       <c r="A514" s="1" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="1" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="1" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="1" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="518" spans="1:6">
       <c r="A518" s="1" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="519" spans="1:6">
       <c r="A519" s="1" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="520" spans="1:6">
       <c r="A520" s="1" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="521" spans="1:6">
       <c r="A521" s="1" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="522" spans="1:6">
       <c r="A522" s="1" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="1" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="524" spans="1:6">
       <c r="A524" s="1" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="525" spans="1:6">
       <c r="A525" s="1" t="s">
-        <v>1446</v>
+        <v>1861</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1901</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="526" spans="1:6">
       <c r="A526" s="1" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1902</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="527" spans="1:6">
       <c r="A527" s="1" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1905</v>
+        <v>1870</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1906</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="528" spans="1:6">
       <c r="A528" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F528" s="1" t="s">
         <v>1875</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="529" spans="1:6">
       <c r="A529" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E529" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="B529" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C529" s="1" t="s">
+      <c r="F529" s="1" t="s">
         <v>1879</v>
-      </c>
-      <c r="E529" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="530" spans="1:6">
       <c r="A530" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C530" s="1" t="s">
+      <c r="E530" s="1" t="s">
         <v>1882</v>
       </c>
-      <c r="E530" s="1" t="s">
+      <c r="F530" s="1" t="s">
         <v>1883</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -22519,7 +23097,7 @@
         <v>1884</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>1885</v>
@@ -22528,96 +23106,572 @@
         <v>1886</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1911</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="532" spans="1:6">
       <c r="A532" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="533" spans="1:6">
       <c r="A533" s="1" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1912</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="534" spans="1:6">
       <c r="A534" s="1" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="535" spans="1:6">
       <c r="A535" s="1" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="536" spans="1:6">
       <c r="A536" s="1" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1903</v>
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E537" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="A550" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E557" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F557" s="4" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E536" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E536" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
